--- a/data/trans_dic/P08_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1087350562980926</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09955289076967749</v>
+        <v>0.09955289076967748</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06578692942985882</v>
+        <v>0.06785568969982596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08510256545920282</v>
+        <v>0.08132391119594432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0689412136597357</v>
+        <v>0.07318013404619435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05573191579959326</v>
+        <v>0.05647663837603403</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1089528144194065</v>
+        <v>0.1104439722659238</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08142816806175768</v>
+        <v>0.08453231618905727</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08522202875349648</v>
+        <v>0.08857808865157707</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1042742389144537</v>
+        <v>0.1049272413657732</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09050092901993802</v>
+        <v>0.09232628925465962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09183397669699134</v>
+        <v>0.09336561646145712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08799622710829276</v>
+        <v>0.08707874947732068</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08457251067169029</v>
+        <v>0.08438575794060725</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1205314782684858</v>
+        <v>0.1213737254672943</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1509942835443965</v>
+        <v>0.1494432208058003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1332684833019806</v>
+        <v>0.1311560929715646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09572808219019344</v>
+        <v>0.09897423165986009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.192690115312368</v>
+        <v>0.1930241984890437</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1581493466826703</v>
+        <v>0.1593798552088228</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1625858869719262</v>
+        <v>0.1652073406428035</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1537067344513972</v>
+        <v>0.1558147774612611</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.138166557609246</v>
+        <v>0.1372201379608102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1432171815052745</v>
+        <v>0.1419769843926638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1342925206899255</v>
+        <v>0.1340688437977683</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1169663991740192</v>
+        <v>0.1176513894201016</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03165463298502549</v>
+        <v>0.03419675547975316</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08941544293864123</v>
+        <v>0.09062744838727459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06897979274122076</v>
+        <v>0.07035299232905143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08786470084400129</v>
+        <v>0.08978493148071605</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03646521129767148</v>
+        <v>0.03661672180527611</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07679817858312653</v>
+        <v>0.07738272582633468</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07388320208325631</v>
+        <v>0.07180635700120371</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1172639115896954</v>
+        <v>0.1205740877882341</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03965596828866721</v>
+        <v>0.04101949192827765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09366418290400409</v>
+        <v>0.09322126148062872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07961204063884775</v>
+        <v>0.07737765806990855</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1092437899241032</v>
+        <v>0.1099927715926421</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08677660915248517</v>
+        <v>0.08520732962586564</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1612058957821203</v>
+        <v>0.1591212305108051</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1353694745000345</v>
+        <v>0.1373501812367097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1479126937597619</v>
+        <v>0.1523826752396776</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08629437966573482</v>
+        <v>0.08736710417922627</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1453636870441276</v>
+        <v>0.1501583935104095</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1420993508069509</v>
+        <v>0.1394195471294749</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1744607728757791</v>
+        <v>0.1774860444957642</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07419788444881971</v>
+        <v>0.07624372611755693</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1409577871376722</v>
+        <v>0.1443588089522023</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1253167531107606</v>
+        <v>0.1258394437232357</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1493703564237024</v>
+        <v>0.1532922714873082</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09125554479653517</v>
+        <v>0.09086743301707265</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1383613589058289</v>
+        <v>0.1409048055883939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1183209760703412</v>
+        <v>0.1178622340555549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1297566268539301</v>
+        <v>0.1329143723919246</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1757232539428391</v>
+        <v>0.1739306836305416</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1933674958911542</v>
+        <v>0.1968128581498563</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1678031942252451</v>
+        <v>0.172804485510733</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2221671752634532</v>
+        <v>0.2206562484891471</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1216162487062173</v>
+        <v>0.1197129250214354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1661590636228907</v>
+        <v>0.1665968650694398</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1397302172893652</v>
+        <v>0.1399656151800786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1669449805426991</v>
+        <v>0.1687352875499812</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1454549538277718</v>
+        <v>0.1484428368264682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2037842095634454</v>
+        <v>0.2055386302736288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1796339966246124</v>
+        <v>0.1780806766061259</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1974562163732249</v>
+        <v>0.2000207592859406</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3085601710183273</v>
+        <v>0.3075504489773572</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3053547601712935</v>
+        <v>0.3064090098996223</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3131003296684556</v>
+        <v>0.3129914553295879</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3261598118033361</v>
+        <v>0.330231557540776</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.173471194883664</v>
+        <v>0.1739878917282738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2200218900183491</v>
+        <v>0.2236683634712869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1967338719265749</v>
+        <v>0.1993523881283287</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2229804027874239</v>
+        <v>0.2256004076818322</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1610971609321582</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1736128892918642</v>
+        <v>0.1736128892918643</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1283336298578799</v>
+        <v>0.1282342901291339</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1487535974700812</v>
+        <v>0.1487456484473102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1368230389053412</v>
+        <v>0.1366384061099601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1615664640895895</v>
+        <v>0.1616774578109656</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1586715320124666</v>
+        <v>0.1587360406499362</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.131108813221288</v>
+        <v>0.1333763824505342</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1405620792848832</v>
+        <v>0.139500187632176</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1394907394007915</v>
+        <v>0.1391367171534734</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1451904296396481</v>
+        <v>0.1455599546047552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1495440399781349</v>
+        <v>0.1490047569732164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1441861646474688</v>
+        <v>0.1435705070588451</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1581002615787404</v>
+        <v>0.1579118985894045</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1674899921876984</v>
+        <v>0.1655259320372515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1932954363779396</v>
+        <v>0.1928470164916534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1791883647121114</v>
+        <v>0.1807434554363287</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.207332279128994</v>
+        <v>0.2095253238238967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.216627709476902</v>
+        <v>0.2184875911291125</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1854363709456154</v>
+        <v>0.1876636881133645</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1948680138813798</v>
+        <v>0.1955391079524479</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1788924279462701</v>
+        <v>0.1805601967008474</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1786055921589055</v>
+        <v>0.1783064135438643</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1840005550327553</v>
+        <v>0.1823900766639729</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1787185891941992</v>
+        <v>0.1787977211418565</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1886761327542888</v>
+        <v>0.1901522963562157</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2026294450962974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1888105944560439</v>
+        <v>0.1888105944560438</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1999314956069222</v>
@@ -1241,7 +1241,7 @@
         <v>0.2490553542165154</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2465216895327485</v>
+        <v>0.2465216895327484</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1052422345836009</v>
+        <v>0.1071851607588476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1415990288774521</v>
+        <v>0.1394819447611802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1724501774431282</v>
+        <v>0.1735793773738817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1577846337296317</v>
+        <v>0.1582335480353324</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1644418085269541</v>
+        <v>0.1703864633015524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3029567545092592</v>
+        <v>0.3037602189427943</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2541391667712502</v>
+        <v>0.254496493432458</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2595718353904885</v>
+        <v>0.2625062920052506</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1524252284645645</v>
+        <v>0.1542036514688181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.247430669811374</v>
+        <v>0.2450354031911686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2267228593077733</v>
+        <v>0.2263720659100984</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2251782755311205</v>
+        <v>0.2268749117487813</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1788666726174818</v>
+        <v>0.1817287755573624</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.20924497584511</v>
+        <v>0.2056599398714424</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2360341410969764</v>
+        <v>0.2348773940808794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2280371420100756</v>
+        <v>0.2252316814781658</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2347196298616799</v>
+        <v>0.2375015686039228</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3723705338127082</v>
+        <v>0.3717564693758177</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3214418080919658</v>
+        <v>0.3224858270246698</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.310920263319628</v>
+        <v>0.3115716612094345</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2048255244260162</v>
+        <v>0.2035175694620883</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2971953876524427</v>
+        <v>0.2947743538945867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2742852316713791</v>
+        <v>0.2744466623702175</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2657299668744625</v>
+        <v>0.266406053241572</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3024509665294895</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3107009691547212</v>
+        <v>0.3107009691547213</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2442416555120813</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01229653858410565</v>
+        <v>0.009965490465980513</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01761601129734691</v>
+        <v>0.01685291489370237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00745171114346664</v>
+        <v>0.007565167990347544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006212798984981401</v>
+        <v>0.005606225711959079</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2730616917285232</v>
+        <v>0.2711844602779641</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3167218526975202</v>
+        <v>0.3157256135279382</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2763829899358359</v>
+        <v>0.2703439196635362</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2826018559716029</v>
+        <v>0.2845013753125819</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.221835687963711</v>
+        <v>0.2248540253416566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2590861797069414</v>
+        <v>0.2607571507440159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2170135550846335</v>
+        <v>0.2194439652807558</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2226093965717749</v>
+        <v>0.2209994167485073</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04803919289375046</v>
+        <v>0.04692523181768743</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06722290660067735</v>
+        <v>0.06468191591223672</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0445598487543388</v>
+        <v>0.04437486803076122</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03726567964660953</v>
+        <v>0.03575302560561033</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3223151316284902</v>
+        <v>0.3231555254494505</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3722412528549679</v>
+        <v>0.3742637923215107</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3347369736412985</v>
+        <v>0.330127476051391</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3389979696627408</v>
+        <v>0.3395979247997953</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2667996488290117</v>
+        <v>0.2672322574644971</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3077230497688835</v>
+        <v>0.3094485782139323</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2681820543598095</v>
+        <v>0.2689457700610255</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2683241385026719</v>
+        <v>0.2704327215736128</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.2255230931532284</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.2232498102076784</v>
+        <v>0.2232498102076783</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1636214759392143</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1012298354620726</v>
+        <v>0.1012295892489134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1332835822361358</v>
+        <v>0.1348644455295825</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1274030832062948</v>
+        <v>0.1259590786712079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1322229803969354</v>
+        <v>0.1322945154355398</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1999314425061004</v>
+        <v>0.1996679911118693</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2378902625222147</v>
+        <v>0.2373207170294186</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2115579275139269</v>
+        <v>0.2098480612041214</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2123346772561201</v>
+        <v>0.2126263145760512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1549385633936469</v>
+        <v>0.1547480504704453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1911951212442482</v>
+        <v>0.1906784506812399</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1733647052891967</v>
+        <v>0.1734529967819233</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.175949779931396</v>
+        <v>0.1763178527190442</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1229527347755008</v>
+        <v>0.1226277906226375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1602970151483633</v>
+        <v>0.1591413092977269</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1502881696384415</v>
+        <v>0.1512316051653666</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1556448767956485</v>
+        <v>0.155617277033943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.228468096614987</v>
+        <v>0.2279817769563911</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2681408565964088</v>
+        <v>0.2688590258856375</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2405760454766858</v>
+        <v>0.2383991013833552</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2337821132143635</v>
+        <v>0.2354843723816812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1734239010635112</v>
+        <v>0.1728304048236481</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2112508150783277</v>
+        <v>0.2101482212268987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1931796365989926</v>
+        <v>0.1929359015607291</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1920155617168099</v>
+        <v>0.1934405612848653</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31168</v>
+        <v>32148</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>37208</v>
+        <v>35556</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29582</v>
+        <v>31401</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30687</v>
+        <v>31097</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33414</v>
+        <v>33871</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25605</v>
+        <v>26582</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29577</v>
+        <v>30741</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50929</v>
+        <v>51248</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>70632</v>
+        <v>72057</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>69028</v>
+        <v>70180</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68298</v>
+        <v>67586</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>87873</v>
+        <v>87679</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57105</v>
+        <v>57504</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66016</v>
+        <v>65338</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57184</v>
+        <v>56278</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52710</v>
+        <v>54497</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59094</v>
+        <v>59197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49731</v>
+        <v>50118</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56426</v>
+        <v>57336</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>75072</v>
+        <v>76102</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>107833</v>
+        <v>107094</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>107651</v>
+        <v>106719</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>104231</v>
+        <v>104057</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>121531</v>
+        <v>122243</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11615</v>
+        <v>12548</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37447</v>
+        <v>37955</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26021</v>
+        <v>26539</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42457</v>
+        <v>43385</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13560</v>
+        <v>13616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25959</v>
+        <v>26156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27505</v>
+        <v>26732</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49619</v>
+        <v>51020</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29298</v>
+        <v>30305</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>70886</v>
+        <v>70551</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59669</v>
+        <v>57995</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>99014</v>
+        <v>99692</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31841</v>
+        <v>31265</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>67513</v>
+        <v>66639</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51065</v>
+        <v>51812</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71473</v>
+        <v>73633</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32090</v>
+        <v>32489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49135</v>
+        <v>50755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52900</v>
+        <v>51902</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73822</v>
+        <v>75102</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54817</v>
+        <v>56329</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>106678</v>
+        <v>109252</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93925</v>
+        <v>94317</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>135383</v>
+        <v>138937</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49496</v>
+        <v>49285</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>87087</v>
+        <v>88688</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61753</v>
+        <v>61514</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>61195</v>
+        <v>62684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>29483</v>
+        <v>29182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50300</v>
+        <v>51197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27876</v>
+        <v>28707</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41656</v>
+        <v>41372</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>86368</v>
+        <v>85017</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>147806</v>
+        <v>148195</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>96139</v>
+        <v>96301</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>110035</v>
+        <v>111215</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78893</v>
+        <v>80514</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>128265</v>
+        <v>129369</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>93753</v>
+        <v>92943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>93123</v>
+        <v>94332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51771</v>
+        <v>51601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>79432</v>
+        <v>79706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52013</v>
+        <v>51995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61154</v>
+        <v>61917</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123194</v>
+        <v>123561</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>195719</v>
+        <v>198963</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>135360</v>
+        <v>137162</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>146968</v>
+        <v>148695</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>158920</v>
+        <v>158797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>172407</v>
+        <v>172398</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>157297</v>
+        <v>157085</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>182868</v>
+        <v>182993</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>113337</v>
+        <v>113383</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>100515</v>
+        <v>102254</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>116087</v>
+        <v>115210</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>120131</v>
+        <v>119826</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>283502</v>
+        <v>284223</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>287972</v>
+        <v>286934</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>284842</v>
+        <v>283626</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>315102</v>
+        <v>314727</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>207409</v>
+        <v>204976</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>224031</v>
+        <v>223511</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>206002</v>
+        <v>207790</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>234668</v>
+        <v>237150</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>154734</v>
+        <v>156062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142166</v>
+        <v>143874</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>160937</v>
+        <v>161491</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>154064</v>
+        <v>155500</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>348749</v>
+        <v>348165</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>354324</v>
+        <v>351223</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>353061</v>
+        <v>353217</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>376042</v>
+        <v>378984</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36893</v>
+        <v>37574</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>72300</v>
+        <v>71219</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>107041</v>
+        <v>107742</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89616</v>
+        <v>89871</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>93527</v>
+        <v>96908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>230708</v>
+        <v>231320</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>187617</v>
+        <v>187881</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>215665</v>
+        <v>218103</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>140126</v>
+        <v>141760</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>314761</v>
+        <v>311714</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>308105</v>
+        <v>307628</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>314983</v>
+        <v>317356</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62703</v>
+        <v>63706</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106840</v>
+        <v>105009</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>146508</v>
+        <v>145790</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>129517</v>
+        <v>127923</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>133497</v>
+        <v>135079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>283568</v>
+        <v>283101</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>237302</v>
+        <v>238073</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>258328</v>
+        <v>258869</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>188298</v>
+        <v>187095</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>378068</v>
+        <v>374988</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>372740</v>
+        <v>372959</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>371707</v>
+        <v>372653</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3667</v>
+        <v>2972</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4701</v>
+        <v>4498</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2140</v>
+        <v>2172</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1474</v>
+        <v>1330</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>340989</v>
+        <v>338644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>351356</v>
+        <v>350251</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>299053</v>
+        <v>292519</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>238595</v>
+        <v>240199</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>343171</v>
+        <v>347840</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>356563</v>
+        <v>358863</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>297128</v>
+        <v>300456</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>240754</v>
+        <v>239013</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14325</v>
+        <v>13993</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17941</v>
+        <v>17262</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12795</v>
+        <v>12742</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8840</v>
+        <v>8482</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>402494</v>
+        <v>403544</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>412946</v>
+        <v>415190</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>362194</v>
+        <v>357206</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>286210</v>
+        <v>286716</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>412728</v>
+        <v>413398</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>423499</v>
+        <v>425873</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>367187</v>
+        <v>368232</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>290195</v>
+        <v>292475</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>331041</v>
+        <v>331040</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>456084</v>
+        <v>461494</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>431351</v>
+        <v>426462</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>455174</v>
+        <v>455421</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>675393</v>
+        <v>674503</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>844540</v>
+        <v>842518</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>747137</v>
+        <v>741099</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>771920</v>
+        <v>772980</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1030080</v>
+        <v>1028814</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1333019</v>
+        <v>1329417</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1199219</v>
+        <v>1199830</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1245349</v>
+        <v>1247955</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>402079</v>
+        <v>401016</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>548522</v>
+        <v>544567</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>508834</v>
+        <v>512028</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>535804</v>
+        <v>535709</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>771794</v>
+        <v>770151</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>951934</v>
+        <v>954483</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>849617</v>
+        <v>841929</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>849890</v>
+        <v>856078</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1152977</v>
+        <v>1149031</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1472848</v>
+        <v>1465161</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1336285</v>
+        <v>1334599</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1359061</v>
+        <v>1369147</v>
       </c>
     </row>
     <row r="32">
